--- a/JieLongMod_6/Excel/J爵位等级_NobilityRanks.xlsx
+++ b/JieLongMod_6/Excel/J爵位等级_NobilityRanks.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>爵位ID_ID</t>
   </si>
@@ -102,68 +102,302 @@
     <t>权限描述_AuthorityDesc</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>云岿山_R1</t>
   </si>
   <si>
     <t>云岿山</t>
   </si>
   <si>
-    <t>外门弟子</t>
-  </si>
-  <si>
-    <t>外门</t>
+    <t>记名弟子</t>
+  </si>
+  <si>
+    <t>记名</t>
   </si>
   <si>
     <t>CampArmy:2
 Retinues:0</t>
   </si>
   <si>
-    <t>最多获封一个小镇（非主城），城镇收入的70%需要上缴给门主，可以携带出两支【部落部队】，没有亲兵。每个部落不限名额。</t>
+    <r>
+      <t>最多获封一个小镇（非主城），城镇收入的70%需要上缴给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以携带出两支【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】，没有亲兵。每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不限名额。</t>
+    </r>
   </si>
   <si>
     <t>云岿山_R2</t>
   </si>
   <si>
-    <t>内门弟子</t>
-  </si>
-  <si>
-    <t>内门</t>
+    <t>外门弟子</t>
+  </si>
+  <si>
+    <t>外门</t>
   </si>
   <si>
     <t>CampArmy:4
 Retinues:1</t>
   </si>
   <si>
-    <t>最多获封两个小镇（非主城），城镇收入的60%需要上缴给门主，可以携带出四支【部落部队】，可以指定一支城镇驻军部队并转换为自身亲兵（该部队被解散/被击溃后可以再次指定一支部队）。每个部落不限名额。</t>
+    <r>
+      <t>最多获封两个小镇（非主城），城镇收入的60%需要上缴给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以携带出四支【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】，可以指定一支城镇驻军部队并转换为自身亲兵（该部队被解散/被击溃后可以再次指定一支部队）。每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不限名额。</t>
+    </r>
   </si>
   <si>
     <t>云岿山_R3</t>
   </si>
   <si>
-    <t>真传弟子</t>
-  </si>
-  <si>
-    <t>真传</t>
+    <t>内门弟子</t>
+  </si>
+  <si>
+    <t>内门</t>
   </si>
   <si>
     <t>CampArmy:6
 Retinues:2</t>
   </si>
   <si>
-    <t>可能获封最多两个小镇+一个城，城镇收入的50%需要上缴给门主。可以携带出六支【部落部队】，可以指定两支城镇驻军部队并转换为自身亲兵。每个部落不限名额。</t>
+    <r>
+      <t>可能获封最多两个小镇+一个城，城镇收入的50%需要上缴给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。可以携带出六支【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】，可以指定两支城镇驻军部队并转换为自身亲兵。每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不限名额。</t>
+    </r>
   </si>
   <si>
     <t>云岿山_R4</t>
   </si>
   <si>
-    <t>堂主</t>
+    <t>真传弟子</t>
+  </si>
+  <si>
+    <t>真传</t>
   </si>
   <si>
     <t>CampArmy:8
 Retinues:4</t>
   </si>
   <si>
-    <t>可能获封最多两个小镇+两个城，城镇收入的40%需要上缴给门主。可以携带出八支【部落部队】，可以指定四支城镇驻军部队并转换为自身亲兵。每个部落仅有3个名额。</t>
+    <r>
+      <t>可能获封最多两个小镇+两个城，城镇收入的40%需要上缴给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。可以携带出八支【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】，可以指定四支城镇驻军部队并转换为自身亲兵。每个部落仅有3个名额。</t>
+    </r>
   </si>
   <si>
     <t>云岿山_R5</t>
@@ -176,7 +410,69 @@
 Retinues:4</t>
   </si>
   <si>
-    <t>可能获封最多三个小镇+三个城，城镇收入的30%需要上缴给门主。可以一共携带出十支【部落部队】，可以指定四支城镇驻军部队并转换为自身亲兵。每个部落仅有2个名额。</t>
+    <r>
+      <t>可能获封最多三个小镇+三个城，城镇收入的30%需要上缴给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。可以一共携带出十支【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】，可以指定四支城镇驻军部队并转换为自身亲兵。每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>势力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅有2个名额。</t>
+    </r>
   </si>
   <si>
     <t>云岿山_R6</t>
@@ -189,7 +485,19 @@
 Retinues:-1</t>
   </si>
   <si>
-    <t>拥有至高无上的权力。</t>
+    <r>
+      <t>势力的最高地位，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拥有至高无上的权力。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -202,7 +510,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +529,13 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,137 +1037,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +1188,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1224,8 +1545,8 @@
   <sheetPr/>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>
@@ -1283,7 +1604,9 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -1300,18 +1623,18 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="42" customHeight="1" spans="1:13">
+    <row r="2" s="2" customFormat="1" ht="42" customHeight="1" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -1335,24 +1658,27 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N2" s="2">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="55.95" customHeight="1" spans="1:13">
+    <row r="3" s="2" customFormat="1" ht="55.95" customHeight="1" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -1376,24 +1702,27 @@
         <v>2</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N3" s="2">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="42" customHeight="1" spans="1:13">
+    <row r="4" s="2" customFormat="1" ht="42" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -1417,24 +1746,27 @@
         <v>2</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:13">
+    <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -1458,24 +1790,27 @@
         <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="46.05" customHeight="1" spans="1:13">
+    <row r="6" s="2" customFormat="1" ht="46.05" customHeight="1" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -1499,24 +1834,27 @@
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="N6" s="2">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="6">
         <v>6</v>
@@ -1540,10 +1878,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
